--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2513625.077777684</v>
+        <v>2507847.539776961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791254</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8093699.083099898</v>
+        <v>8092519.124319061</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.41325765719975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>255.8724861394595</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>44.91846290925328</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>102.4290392774785</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.55567497641758</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.41341647690241</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>293.9100809018182</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>161.4732861313472</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.240590238337</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707642</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>78.82543546353251</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.71534783581671</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>401.1488117758481</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.836713037499476</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098797</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>143.1241205838005</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1433,7 +1433,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627326</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603044</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>53.2893115068999</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059397</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2849,7 +2849,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292006</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453467</v>
+        <v>20.92391191189581</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443479</v>
+        <v>48.81858568179594</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622523</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046312</v>
+        <v>67.32610467782426</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074552</v>
+        <v>52.47323292810667</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258525</v>
+        <v>38.04694813994639</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546436</v>
+        <v>37.97339019282551</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523163</v>
+        <v>39.72284161259277</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762376</v>
+        <v>50.54167953498491</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419581</v>
+        <v>37.89393170155695</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536774</v>
+        <v>15.73364728272888</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982366</v>
+        <v>6.632145647184799</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535097</v>
+        <v>84.75808915271212</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175979</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840513</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118671</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643893</v>
+        <v>106.2581909707457</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150904</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866452</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589426</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822821</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812833</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>58.25005009043768</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332852</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111638</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460421</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183733</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415666</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443906</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627879</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491579</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892517</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.1046738913173</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788935</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906128</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035172</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090445</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432166</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702865</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571524</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779025</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246151</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012915</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840513</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118671</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252673</v>
+        <v>109.9667971102779</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643893</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150904</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866452</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589426</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>124.2175601048113</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111638</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460421</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183733</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415666</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443906</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627879</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491579</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892517</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.1046738913173</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788935</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906128</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035172</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090445</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432166</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702865</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571524</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779025</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246151</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012915</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1440.777126072525</v>
+        <v>999.049684855221</v>
       </c>
       <c r="C2" t="n">
-        <v>1440.777126072525</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>1440.777126072525</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.19360118907</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>779.736544482545</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>366.5737889705481</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703875</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703875</v>
+        <v>138.413811917203</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703875</v>
+        <v>497.3961679446648</v>
       </c>
       <c r="L2" t="n">
-        <v>535.8110302555676</v>
+        <v>990.7164596631936</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322327</v>
+        <v>990.7164596631936</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828087</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720416</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137459</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.03045807851</v>
+        <v>1820.409826157687</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637927</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072525</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="V2" t="n">
-        <v>1440.777126072525</v>
+        <v>999.049684855221</v>
       </c>
       <c r="W2" t="n">
-        <v>1440.777126072525</v>
+        <v>999.049684855221</v>
       </c>
       <c r="X2" t="n">
-        <v>1440.777126072525</v>
+        <v>999.049684855221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.777126072525</v>
+        <v>999.049684855221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.4844181182682</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>478.8301876783604</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>348.7412202998407</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>212.2947294107285</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>87.86292329386025</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703875</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703875</v>
+        <v>89.8855798867107</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173058</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.73384211316</v>
+        <v>1138.346177012114</v>
       </c>
       <c r="N3" t="n">
-        <v>2010.556731509015</v>
+        <v>1639.512960007565</v>
       </c>
       <c r="O3" t="n">
-        <v>2124.536926851938</v>
+        <v>1639.512960007565</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851938</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>1989.606249751806</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>1812.622437950715</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1602.559294629357</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1380.019293000424</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1149.902047133711</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>960.5949694837223</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>781.2807525592295</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.4489973985183</v>
+        <v>113.7868864808623</v>
       </c>
       <c r="C4" t="n">
-        <v>398.4489973985183</v>
+        <v>113.7868864808623</v>
       </c>
       <c r="D4" t="n">
-        <v>398.4489973985183</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="E4" t="n">
-        <v>398.4489973985183</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="F4" t="n">
-        <v>241.1230626114913</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G4" t="n">
-        <v>72.86900871093681</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H4" t="n">
-        <v>72.86900871093681</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093681</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="V4" t="n">
-        <v>855.6413807988919</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="W4" t="n">
-        <v>855.6413807988919</v>
+        <v>298.9949051721636</v>
       </c>
       <c r="X4" t="n">
-        <v>621.5610585818749</v>
+        <v>298.9949051721636</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.4489973985183</v>
+        <v>298.9949051721636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>595.9797428428543</v>
+        <v>359.3535813976294</v>
       </c>
       <c r="C5" t="n">
-        <v>202.8042413457848</v>
+        <v>62.47471179983325</v>
       </c>
       <c r="D5" t="n">
-        <v>202.8042413457848</v>
+        <v>62.47471179983325</v>
       </c>
       <c r="E5" t="n">
-        <v>202.8042413457848</v>
+        <v>62.47471179983325</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161667</v>
+        <v>49.62067737021507</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445739</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445739</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>973.828876422806</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>973.828876422806</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1499.651765818661</v>
+        <v>1393.967756640064</v>
       </c>
       <c r="O5" t="n">
-        <v>1939.691366710989</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710989</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137459</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.03045807851</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.03045807851</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.03045807851</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="V5" t="n">
-        <v>1756.926128652907</v>
+        <v>1516.295930575684</v>
       </c>
       <c r="W5" t="n">
-        <v>1385.927093621194</v>
+        <v>1145.296895543971</v>
       </c>
       <c r="X5" t="n">
-        <v>996.4744885542511</v>
+        <v>755.8442904770283</v>
       </c>
       <c r="Y5" t="n">
-        <v>996.4744885542511</v>
+        <v>359.3535813976294</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163326</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764248</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979051</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087928</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192462</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703875</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703875</v>
+        <v>89.8855798867107</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703875</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>526.056824435352</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>1051.879713831207</v>
+        <v>861.4042549562996</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544559</v>
+        <v>1118.128143219266</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.91555813554</v>
+        <v>1619.294926214717</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750002</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649871</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848779</v>
+        <v>1689.084762927957</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527421</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898488</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031775</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817866</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572939</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1080904039238</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1080904039238</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="D7" t="n">
-        <v>679.1080904039238</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760992</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703875</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703875</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703875</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S7" t="n">
-        <v>864.3161090952251</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T7" t="n">
-        <v>864.3161090952251</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>864.3161090952251</v>
+        <v>492.4890543491814</v>
       </c>
       <c r="V7" t="n">
-        <v>864.3161090952251</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="W7" t="n">
-        <v>864.3161090952251</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3161090952251</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.3161090952251</v>
+        <v>226.5097091700056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603.7049414143012</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>603.7049414143012</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>603.7049414143012</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>603.7049414143012</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>590.850906984683</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1790.14300127204</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1400.690396205097</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1004.199687125698</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>661.4659351905532</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>661.4659351905532</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>663.3212008849971</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>663.3212008849971</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>663.3212008849971</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.3212008849971</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1743.242889185566</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1445.008068975685</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.507621479541</v>
+        <v>731.4357765463909</v>
       </c>
       <c r="E11" t="n">
-        <v>846.8647778832737</v>
+        <v>423.7929329501239</v>
       </c>
       <c r="F11" t="n">
-        <v>524.9110207004398</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>206.6889464756312</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2350.346981401985</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2350.346981401985</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.796953609774</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5206,43 +5206,43 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.069506034397</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321052</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492713</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2819.743875775095</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2543.685522030571</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.623570458606</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197904</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
         <v>357.1274984979809</v>
@@ -5422,7 +5422,7 @@
         <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5434,10 +5434,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
         <v>557.4621512791391</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803431</v>
@@ -5747,7 +5747,7 @@
         <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,13 +5786,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5838,10 +5838,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.744905612751</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5899,37 +5899,37 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5944,13 +5944,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
         <v>289.463261197452</v>
@@ -5972,34 +5972,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L27" t="n">
-        <v>393.1040050097767</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>1020.875654636458</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>670.0459270655908</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.817576692272</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
-        <v>1297.817576692272</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879682</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746021</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6625,10 +6625,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6646,25 +6646,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674339</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474763</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267639</v>
+        <v>87.68547930209947</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>598.6915723973019</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.502371756217</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800797</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.31455543826</v>
+        <v>2252.184354569788</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.354156330588</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.54164846211</v>
+        <v>3065.03249633376</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243444</v>
+        <v>3249.878056474709</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491225</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281049</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304541</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452718</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>871.847859343585</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>1091.113730876834</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.891702087393</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590193</v>
+        <v>341.6872565554796</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229127</v>
+        <v>288.6839909715334</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233316</v>
+        <v>250.2527302241128</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804383</v>
+        <v>211.89577043338</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913154</v>
+        <v>171.7716879964176</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806334</v>
+        <v>82.4427877574864</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304541</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304541</v>
+        <v>151.6460076354898</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>233.4810487454317</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5053083667871</v>
+        <v>397.6086886192314</v>
       </c>
       <c r="M34" t="n">
-        <v>529.430037611203</v>
+        <v>627.5238173231658</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792827981</v>
+        <v>810.7134513543749</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964892</v>
+        <v>1088.287753884381</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381856</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392293</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422774</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569366</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209171</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278999</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569816</v>
+        <v>632.4821015969604</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378688</v>
+        <v>515.6036317300081</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524164</v>
+        <v>409.6934228967162</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>804.5780233445269</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862349</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7260,10 +7260,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1565.708003466907</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1269.97375395997</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.97375395997</v>
+        <v>756.4414835758394</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666475</v>
+        <v>649.1099775447826</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867583</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648942</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215178</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2978.045647702175</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2733.380090395826</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2459.822307354247</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2167.810954277436</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1868.761497188171</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
         <v>1974.833293963354</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344882</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906103</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.624644983258</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325934</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356993</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252778</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769047</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822073</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676785</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170077</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730801</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954777</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792123</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237703</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860413</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033095</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191463</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423496</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234454</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557641</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288802</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356565</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.812015342704</v>
+        <v>1409.247912944791</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.077765835767</v>
+        <v>1113.513663437855</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.077889042568</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>923.935616149245</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693557</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474919</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2980.484102271624</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2706.926319230044</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.914966153234</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y44" t="n">
-        <v>2115.865509063968</v>
+        <v>1712.301406666055</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>830.5413617456916</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344882</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906103</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.624644983258</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325934</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356993</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252778</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769047</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822073</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529171</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022461</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160395</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822778</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940015</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792123</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237703</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860413</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033095</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191463</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423496</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234454</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557641</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288802</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356565</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>216.5843692742458</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>427.175469957995</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507685</v>
+        <v>655.3475650705628</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622963</v>
+        <v>598.6161957820906</v>
       </c>
       <c r="N3" t="n">
-        <v>616.506344567151</v>
+        <v>591.6011865869453</v>
       </c>
       <c r="O3" t="n">
-        <v>207.8190693362857</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>239.6472470098799</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>585.2744413966304</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507685</v>
+        <v>655.3475650705628</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>156.4260707336264</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622963</v>
+        <v>598.6161957820906</v>
       </c>
       <c r="N6" t="n">
-        <v>237.4080337767448</v>
+        <v>344.6891717056482</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216676</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,19 +8532,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>279.5693555729968</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9006,25 +9006,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>199.6102425680207</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>579.1898666384017</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,13 +9486,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9954,16 +9954,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>301.854937525337</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,22 +10188,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>301.854937525337</v>
       </c>
       <c r="O30" t="n">
-        <v>551.1687275349756</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>313.8678003657254</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>335.1420048916687</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11139,19 +11139,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,16 +11376,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000176</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>83.72682487105727</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749092</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>191.4051552223004</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252673</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>195.8326591936433</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459459</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>98.47831270907808</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149892</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822821</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812833</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459459</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>118.0013416284738</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>706698.2749913074</v>
+        <v>706096.7273775471</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>706698.2749913074</v>
+        <v>706096.7273775471</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672625.8855554853</v>
+        <v>672625.8855554855</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672625.8855554851</v>
+        <v>672625.8855554856</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.969898742</v>
       </c>
       <c r="C2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="D2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="E2" t="n">
-        <v>542323.5925863625</v>
+        <v>542323.5925863626</v>
       </c>
       <c r="F2" t="n">
         <v>542323.5925863625</v>
       </c>
       <c r="G2" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="H2" t="n">
         <v>577062.9698987416</v>
@@ -26335,25 +26335,25 @@
         <v>577062.9698987416</v>
       </c>
       <c r="J2" t="n">
-        <v>577062.9698987409</v>
+        <v>577062.969898741</v>
       </c>
       <c r="K2" t="n">
-        <v>577062.9698987409</v>
+        <v>577062.9698987405</v>
       </c>
       <c r="L2" t="n">
-        <v>577062.9698987412</v>
+        <v>577062.9698987425</v>
       </c>
       <c r="M2" t="n">
-        <v>577062.9698987416</v>
+        <v>577062.9698987411</v>
       </c>
       <c r="N2" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="O2" t="n">
-        <v>544688.2522704606</v>
+        <v>544688.2522704607</v>
       </c>
       <c r="P2" t="n">
-        <v>544688.2522704606</v>
+        <v>544688.2522704607</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602679</v>
+        <v>26460.41160941808</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767013</v>
+        <v>46725.80335481238</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555659</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015661</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249335</v>
+        <v>198138.1733873961</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249335</v>
+        <v>198138.1733873961</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26427,7 +26427,7 @@
         <v>123047.6773561512</v>
       </c>
       <c r="F4" t="n">
-        <v>123047.6773561512</v>
+        <v>123047.6773561513</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,25 +26439,25 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
+        <v>147651.9979996331</v>
+      </c>
+      <c r="N4" t="n">
         <v>147651.9979996332</v>
       </c>
-      <c r="N4" t="n">
-        <v>147651.9979996333</v>
-      </c>
       <c r="O4" t="n">
-        <v>124722.2932551425</v>
+        <v>124722.2932551426</v>
       </c>
       <c r="P4" t="n">
-        <v>124722.2932551425</v>
+        <v>124722.2932551427</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814945</v>
+        <v>64406.32768295294</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814945</v>
+        <v>64406.32768295294</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,31 +26485,31 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446764</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141119.5647513084</v>
+        <v>144869.462951843</v>
       </c>
       <c r="C6" t="n">
-        <v>319114.8618856587</v>
+        <v>314518.4688283925</v>
       </c>
       <c r="D6" t="n">
-        <v>311515.3786713831</v>
+        <v>303779.0894479916</v>
       </c>
       <c r="E6" t="n">
-        <v>233710.69458359</v>
+        <v>233602.134029489</v>
       </c>
       <c r="F6" t="n">
-        <v>364163.6257213022</v>
+        <v>364055.0651672009</v>
       </c>
       <c r="G6" t="n">
-        <v>342146.2467105742</v>
+        <v>342146.2467105747</v>
       </c>
       <c r="H6" t="n">
         <v>371241.2025835887</v>
@@ -26543,25 +26543,25 @@
         <v>371241.2025835887</v>
       </c>
       <c r="J6" t="n">
-        <v>143155.5592338386</v>
+        <v>149671.8443884118</v>
       </c>
       <c r="K6" t="n">
-        <v>365001.434180805</v>
+        <v>365001.4341808047</v>
       </c>
       <c r="L6" t="n">
-        <v>326107.0872482171</v>
+        <v>322058.2500377462</v>
       </c>
       <c r="M6" t="n">
-        <v>328509.9256492202</v>
+        <v>327458.2306380317</v>
       </c>
       <c r="N6" t="n">
-        <v>371241.2025835885</v>
+        <v>371241.202583589</v>
       </c>
       <c r="O6" t="n">
-        <v>345661.9914026108</v>
+        <v>345560.8204100221</v>
       </c>
       <c r="P6" t="n">
-        <v>364645.5512327674</v>
+        <v>364544.380240179</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880676</v>
+        <v>831.8776843078618</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087663</v>
+        <v>58.40725419351547</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165926</v>
+        <v>14.33013548902032</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769576</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631068</v>
+        <v>85.18305253651636</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559186</v>
+        <v>646.8007142757126</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455255</v>
+        <v>129.6883820257312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631068</v>
+        <v>85.18305253651636</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8304888248989</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>156.8530079458625</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>73.94075683960092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>31.1523310516513</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>81.52110699009282</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>175.9061352504816</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.33366558028052</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>177.2124550721695</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.6186295105172</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2637886710682</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>121.9624875157436</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>193.6465134776315</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>7.882316181028727</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.5192254668888</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28743,20 +28743,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.78466270501673</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620214295</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.029833826564</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>28.92237465267874</v>
+        <v>44.06419228855586</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528552</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082792</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702316</v>
+        <v>36.24905561693106</v>
       </c>
       <c r="N43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>36.249055616937</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702316</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>36.24905561693724</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702316</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702316</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>98.90453133189966</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>277.4504183602677</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O3" t="n">
-        <v>115.1315104473968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.5638821905652</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>432.0262716661387</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6.124623492701176</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129844</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="N6" t="n">
-        <v>152.0359209225781</v>
+        <v>259.3170588514815</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>189.5090087160786</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35726,25 +35726,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528671</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453562</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>216.4828246711704</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,7 +36838,7 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="O30" t="n">
-        <v>458.4811686460866</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3931031367964</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221362</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>649.1725445714751</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.5742837087307</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649843</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659187</v>
+        <v>78.41684924923072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797556</v>
       </c>
       <c r="M33" t="n">
-        <v>221.4806783164134</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440492</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>217.0956861054707</v>
+        <v>232.2375037413478</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288839</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.934620891004</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918833</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640776</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873205</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905432</v>
+        <v>313.338016483238</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>249.769892037502</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807254</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570416</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922516</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230236</v>
+        <v>224.422367069723</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451904</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073105</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548952</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038409</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807254</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
-        <v>118.9107133037472</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922516</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230236</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451904</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073105</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081898</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038409</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
